--- a/SA/Fig 13b - CoolingRate.xlsx
+++ b/SA/Fig 13b - CoolingRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Source Control\Mission-Simulator\_Notes\Test Results\FindBestEntryPointGenetic\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103AAC8B-E746-495D-910F-5F315A931768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5798E9E-CC48-40A3-9C31-2F25CA1C0F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,6 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,10 +128,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +344,7 @@
             <c:numRef>
               <c:f>Chart!$B$4:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.95112215748069973</c:v>
@@ -607,7 +610,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5774,7 +5777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A381204A-639C-4AF7-AFBD-F88D840C9176}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A381204A-639C-4AF7-AFBD-F88D840C9176}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5851,7 +5854,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Performance Achieved" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Performance Achieved" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -6160,7 +6163,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6179,50 +6182,50 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.95112215748069973</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.93</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>0.95649424963730456</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.95</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>0.96238869747535705</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.97</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0.97036201627446383</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.99</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>0.97746011778989428</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>0.96356544773154384</v>
       </c>
     </row>
